--- a/mysite/dataset/renew.xlsx
+++ b/mysite/dataset/renew.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀</t>
+          <t>콩나물국, 쌀밥, 오삼불고기, 찐만두, 오이양파무침, 야채샐러드, 포기김치, 계절과일</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치</t>
+          <t>얼큰어묵국, 쌀밥, 돼지삼겹야채볶음, 치킨가스&amp;허니머스타드, 청포묵무침, 야채샐러드, 포기김치, 냉음료</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치</t>
+          <t>들깨무채국, 흑미밥, 안동찜닭, 돈가스&amp;소스, 미역초무침, 야채샐러드, 포기김치, 계절과일</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>계란국, 쌀밥, 제육볶음, 피자춘권, 숙주나물, 피크닉, 배추김치, Take out menu, 더커진비빔참치마요삼각김밥, 카페베네, 카페라떼, 폭신한 치즈머핀</t>
+          <t>크림스프, 쌀밥, 함박스테이크, 토마토펜네파스타, 야채샐러드, 모닝빵&amp;딸기잼, 배추김치, Take out menu, 게살크래미주먹밥, 조지아커피캔,무설탕블랙, 고소한소보루빵</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>얼큰김칫국, 쌀밥, 데리야끼치킨볶음, 교자만두, 열무무침, 청포묵무침, 배추김치</t>
+          <t>얼큰김칫국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 콩자반, 사과, 배추김치</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>얼큰김칫국, 쌀밥, 마파두부, 새우까스&amp;타르s, 단무지, 청포묵무침, 배추김치</t>
+          <t>얼큰김칫국, 쌀밥, 해물덮밥, 해물고로케&amp;케찹, 고추지무침, 치커리무침, 배추김치</t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>12</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11">
@@ -570,7 +570,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>토</t>
+          <t>목</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>16.49</v>
+        <v>17.82</v>
       </c>
     </row>
     <row r="15">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>16.16</v>
+        <v>15.76</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>18.69</v>
+        <v>19.94</v>
       </c>
     </row>
     <row r="18">
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B20" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>13</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -706,7 +706,7 @@
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>일</t>
+          <t>금</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>21.23</v>
+        <v>17.88</v>
       </c>
     </row>
     <row r="24">
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>18.86</v>
+        <v>15.81</v>
       </c>
     </row>
     <row r="26">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>24.35</v>
+        <v>20.4</v>
       </c>
     </row>
     <row r="27">

--- a/mysite/dataset/renew.xlsx
+++ b/mysite/dataset/renew.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>31</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -570,7 +570,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>목</t>
+          <t>월</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22">
@@ -706,7 +706,7 @@
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>금</t>
+          <t>화</t>
         </is>
       </c>
     </row>

--- a/mysite/dataset/renew.xlsx
+++ b/mysite/dataset/renew.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>콩나물국, 쌀밥, 오삼불고기, 찐만두, 오이양파무침, 야채샐러드, 포기김치, 계절과일</t>
+          <t>순대국밥, 흑미밥, 제육볶음, 생선가스&amp;타르소스, 오징어젓갈무말랭이무침, 야채샐러드, 포기김치, 빼빼로</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>얼큰어묵국, 쌀밥, 돼지삼겹야채볶음, 치킨가스&amp;허니머스타드, 청포묵무침, 야채샐러드, 포기김치, 냉음료</t>
+          <t>얼갈이된장국, 흑미밥, 삼치카레구이, 코코넛새우가스&amp;강정소스, 도시락김, 야채샐러드, 포기김치, 빼빼로</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>들깨무채국, 흑미밥, 안동찜닭, 돈가스&amp;소스, 미역초무침, 야채샐러드, 포기김치, 계절과일</t>
+          <t>쇠고기육개장, 쌀밥, 닭고기꽈리고추소금구이, 고구마치즈돈가스&amp;소스, 두부조림, 야채샐러드, 포기김치, 계절과일</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>크림스프, 쌀밥, 함박스테이크, 토마토펜네파스타, 야채샐러드, 모닝빵&amp;딸기잼, 배추김치, Take out menu, 게살크래미주먹밥, 조지아커피캔,무설탕블랙, 고소한소보루빵</t>
+          <t>미역국, 쌀밥, 치킨까스&amp;머스타드s, 비엔나케찹볶음, 치커리무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 찍어먹는 꼬마김밥, 암바사</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>얼큰김칫국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 콩자반, 사과, 배추김치</t>
+          <t>얼큰김칫국, 쌀밥, 제육볶음, 볼어물조림, 청경채무침, 고추된장무침, 배추김치</t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>얼큰김칫국, 쌀밥, 해물덮밥, 해물고로케&amp;케찹, 고추지무침, 치커리무침, 배추김치</t>
+          <t>얼큰김칫국, 쌀밥, 해물덮밥, 치킨너겟&amp;머스타드s, 청경채무침, 연근조림, 배추김치</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>17.82</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="15">
@@ -634,7 +634,7 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>맑음</t>
+          <t>튼구름</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>15.76</v>
+        <v>13.53</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>19.94</v>
+        <v>16.17</v>
       </c>
     </row>
     <row r="18">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>17.88</v>
+        <v>15.09</v>
       </c>
     </row>
     <row r="24">
@@ -728,7 +728,7 @@
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>온흐림</t>
+          <t>맑음</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>15.81</v>
+        <v>12.24</v>
       </c>
     </row>
     <row r="26">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>20.4</v>
+        <v>18.36</v>
       </c>
     </row>
     <row r="27">

--- a/mysite/dataset/renew.xlsx
+++ b/mysite/dataset/renew.xlsx
@@ -549,7 +549,7 @@
         </is>
       </c>
       <c r="B9" s="0" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -570,7 +570,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>목</t>
+          <t>일</t>
         </is>
       </c>
     </row>
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -706,7 +706,7 @@
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>금</t>
+          <t>월</t>
         </is>
       </c>
     </row>

--- a/mysite/dataset/renew.xlsx
+++ b/mysite/dataset/renew.xlsx
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>15.59</v>
+        <v>15.07</v>
       </c>
     </row>
     <row r="15">
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>15.24</v>
+        <v>14.44</v>
       </c>
     </row>
     <row r="17">
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>15.82</v>
+        <v>15.63</v>
       </c>
     </row>
     <row r="18">

--- a/mysite/dataset/renew.xlsx
+++ b/mysite/dataset/renew.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">콩나물국, 쌀밥, 김치제육, 야채춘권, 두부조림, 도시락김, 배추김치, Take out menu, 치즈불닭김밥, 흰우유, 소보루빵, </t>
+          <t xml:space="preserve">떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀, </t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">어묵국, 쌀밥, 찜닭, 오징어핫바&amp;케찹, 그린샐러드, 햄감자채볶음, 배추김치, </t>
+          <t xml:space="preserve">수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치, </t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">미소장국, 후리카게밥, 해물볶음우동, 가라아게, 고추지무침, 건파래볶음, 배추김치, </t>
+          <t xml:space="preserve">사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치, </t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">들깨무채국, 흑미밥, 묵은지닭도리탕, 모듬튀김, 주키니새우젓볶음, 야채샐러드, 깍두기, 떡, </t>
+          <t xml:space="preserve">북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일, </t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">고추장찌개, 흑미밥, 훈제오리야채볶음, 피자춘권, 상추깻잎무침, 야채샐러드, 포기김치, 냉음료, </t>
+          <t xml:space="preserve">얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료, </t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -570,7 +570,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>목</t>
+          <t>금</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>15.07</v>
+        <v>16.75</v>
       </c>
     </row>
     <row r="15">
@@ -614,7 +614,7 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>온흐림</t>
+          <t>튼구름</t>
         </is>
       </c>
     </row>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>14.44</v>
+        <v>15.51</v>
       </c>
     </row>
     <row r="17">
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>15.63</v>
+        <v>18.21</v>
       </c>
     </row>
     <row r="18">
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22">
@@ -686,7 +686,7 @@
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>금</t>
+          <t>토</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>17.75</v>
+        <v>15.08</v>
       </c>
     </row>
     <row r="24">
@@ -708,7 +708,7 @@
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>약간의 구름이 낀 하늘</t>
+          <t>실 비</t>
         </is>
       </c>
     </row>
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>15.79</v>
+        <v>10.4</v>
       </c>
     </row>
     <row r="26">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>20.39</v>
+        <v>18.07</v>
       </c>
     </row>
     <row r="27">
@@ -755,7 +755,7 @@
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">어묵국, 쌀밥, 연어치즈까스&amp;타르s, 가래떡볶이, 그린샐러드, 쥐어채볶음, 배추김치, </t>
+          <t xml:space="preserve">수제비국, 쌀밥, 떡갈비, 순대볶음, 부추무침, 멸치볶음, 배추김치, </t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀, </t>
+          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치, </t>
+          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">수제비국, 쌀밥, 떡갈비, 순대볶음, 부추무침, 멸치볶음, 배추김치, </t>
+          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치, </t>
+          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일, </t>
+          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료, </t>
+          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
         </is>
       </c>
     </row>

--- a/mysite/dataset/renew.xlsx
+++ b/mysite/dataset/renew.xlsx
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>16.75</v>
+        <v>16.78</v>
       </c>
     </row>
     <row r="15">
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>18.21</v>
+        <v>18.28</v>
       </c>
     </row>
     <row r="18">
@@ -708,7 +708,7 @@
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>실 비</t>
+          <t>온흐림</t>
         </is>
       </c>
     </row>

--- a/mysite/dataset/renew.xlsx
+++ b/mysite/dataset/renew.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">떡국, 쌀밥, 새우튀김&amp;타르s, 미트볼조림, 감자조림, 포도주스, 배추김치, Take out menu, 점보김치제육삼각김밥, 카페라떼커피컵, 폭신한아몬드머핀, </t>
+          <t xml:space="preserve">우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 , </t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">수제비국, 쌀밥, 오리훈제볶음, 교자만두, 부추무침, 콘샐러드, 배추김치, </t>
+          <t xml:space="preserve">콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치, </t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">사골국, 쌀밥, 닭갈비, 들기름막국수, 무말랭이무침, 버섯볶음, 배추김치, </t>
+          <t xml:space="preserve">짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치, </t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">북어콩나물국, 흑미밥, 마늘보쌈(세팅), 군만두, 쟁반막국수, 야채샐러드, 포기김치, 계절과일, </t>
+          <t xml:space="preserve">바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일, </t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">얼큰어묵국, 참치마요덮밥, 소세지메추리알야채볶음, 치킨가스&amp;허니머스타드, 청경채무침, 야채샐러드, 포기김치, 냉음료, </t>
+          <t xml:space="preserve">콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료, </t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
@@ -570,7 +570,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>금</t>
+          <t>월</t>
         </is>
       </c>
     </row>
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>16.78</v>
+        <v>3.41</v>
       </c>
     </row>
     <row r="15">
@@ -614,7 +614,7 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>튼구름</t>
+          <t>온흐림</t>
         </is>
       </c>
     </row>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>15.51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -635,7 +635,7 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>18.28</v>
+        <v>5.56</v>
       </c>
     </row>
     <row r="18">
@@ -675,7 +675,7 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22">
@@ -686,7 +686,7 @@
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>토</t>
+          <t>화</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>15.08</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="24">
@@ -719,7 +719,7 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>10.4</v>
+        <v>5.42</v>
       </c>
     </row>
     <row r="26">
@@ -729,7 +729,7 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>18.07</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="27">
@@ -755,7 +755,7 @@
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">수제비국, 쌀밥, 떡갈비, 순대볶음, 부추무침, 멸치볶음, 배추김치, </t>
+          <t xml:space="preserve">콩나물국, 쌀밥, 마파두부, 새우까스&amp;타르s, 마늘쫑락교무침, 치커리무침, 배추김치, </t>
         </is>
       </c>
     </row>
@@ -767,7 +767,7 @@
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, , </t>
         </is>
       </c>
     </row>
@@ -779,7 +779,7 @@
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치, </t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">미역국, 쌀밥, 하이라이스, 함박스테이크, 수제피클, 무조림, 배추김치, </t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치, </t>
         </is>
       </c>
     </row>
@@ -827,7 +827,7 @@
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일, </t>
         </is>
       </c>
     </row>
@@ -839,7 +839,7 @@
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료, </t>
         </is>
       </c>
     </row>

--- a/mysite/dataset/renew.xlsx
+++ b/mysite/dataset/renew.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">우동장국, 쌀밥, 제육볶음, 김말이떡강정, 청포묵무침, 사과주스, 배추김치, Take out menu,  점보소고기고추장삼각김밥 ,  바나나우유 ,  치즈케이크빵 , </t>
+          <t xml:space="preserve">크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, , </t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">콩나물국, 쌀밥, 닭볶음탕, 어묵볶음, 미역줄기볶음, 치커리무침, 배추김치, </t>
+          <t xml:space="preserve">미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치, </t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">짬뽕&amp;면, 쌀밥, 깐풍기&amp;소스, 짜장떡볶이, 콩나물무침, 단무지, 배추김치, </t>
+          <t xml:space="preserve">유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치, </t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">바지락된장찌개, 흑미밥, 안동찜닭, 새송이짬뽕볶음, 오징어젓갈무말랭이, 야채샐러드, 포기김치, 계절과일, </t>
+          <t xml:space="preserve">맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일, </t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">콩나물국, 흑미밥, 순대야채볶음, 콘치즈, 건새우호박볶음, 야채샐러드, 포기김치, 냉음료, </t>
+          <t xml:space="preserve">유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료, </t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
@@ -570,7 +570,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>월</t>
+          <t>화</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,27 @@
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>제목 : 2024-2학기 노트북 사전신청 대여자 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167471&lt;br&gt;작성자 : 한여은&lt;br&gt;작성일자 : 2024.08.22&lt;br&gt;&lt;br&gt;제목 : 2024년 대학생을 위한 오픈소스SW라이선스 교육 안내(~8월 23일(금))&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167466&lt;br&gt;작성자 : 조현영&lt;br&gt;작성일자 : 2024.08.21&lt;br&gt;&lt;br&gt;제목 : [한국과학기술원(KAIST)] 제 11기 과학기술전문사관 후보생(학사) 모집(~9월 13일 (금) 18:00)&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167462&lt;br&gt;작성자 : 조현영&lt;br&gt;작성일자 : 2024.08.21&lt;br&gt;&lt;br&gt;제목 : 2024-2학기 태블릿 사전신청 대여자 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167452&lt;br&gt;작성자 : 한여은&lt;br&gt;작성일자 : 2024.08.20&lt;br&gt;&lt;br&gt;제목 : 24-2 졸업프로젝트1 분반배정결과 안내&lt;br&gt;링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167443&lt;br&gt;작성자 : 컴퓨터공학과&lt;br&gt;작성일자 : 2024.08.19&lt;br&gt;&lt;br&gt;</t>
+          <t xml:space="preserve">작성자 : 한여은
+제목 : 2024-2학기 노트북 사전신청 대여자 안내
+링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167471
+작성일자 : 2024.08.22
+작성자 : 조현영
+제목 : 2024년 대학생을 위한 오픈소스SW라이선스 교육 안내(~8월 23일(금))
+링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167466
+작성일자 : 2024.08.21
+작성자 : 조현영
+제목 : [한국과학기술원(KAIST)] 제 11기 과학기술전문사관 후보생(학사) 모집(~9월 13일 (금) 18:00)
+링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167462
+작성일자 : 2024.08.21
+작성자 : 한여은
+제목 : 2024-2학기 태블릿 사전신청 대여자 안내
+링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167452
+작성일자 : 2024.08.20
+작성자 : 컴퓨터공학과
+제목 : 24-2 졸업프로젝트1 분반배정결과 안내
+링크 : https://wwwce.hongik.ac.kr/dept/0401.html?pkid=167443
+작성일자 : 2024.08.19
+</t>
         </is>
       </c>
     </row>
@@ -603,7 +623,7 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>3.41</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="15">
@@ -614,7 +634,7 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>온흐림</t>
+          <t>튼구름</t>
         </is>
       </c>
     </row>
@@ -625,7 +645,7 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>2</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="17">
@@ -635,7 +655,7 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>5.56</v>
+        <v>9.57</v>
       </c>
     </row>
     <row r="18">
@@ -675,7 +695,7 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -686,7 +706,7 @@
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>화</t>
+          <t>수</t>
         </is>
       </c>
     </row>
@@ -697,7 +717,7 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>7.16</v>
+        <v>8.08</v>
       </c>
     </row>
     <row r="24">
@@ -708,7 +728,7 @@
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>온흐림</t>
+          <t>맑음</t>
         </is>
       </c>
     </row>
@@ -719,7 +739,7 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>5.42</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="26">
@@ -729,7 +749,7 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>9.5</v>
+        <v>9.42</v>
       </c>
     </row>
     <row r="27">
@@ -755,7 +775,7 @@
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">콩나물국, 쌀밥, 마파두부, 새우까스&amp;타르s, 마늘쫑락교무침, 치커리무침, 배추김치, </t>
+          <t xml:space="preserve">미역국, 쌀밥, 하이라이스, 함박스테이크, 수제피클, 무조림, 배추김치, </t>
         </is>
       </c>
     </row>
@@ -767,7 +787,7 @@
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, , </t>
+          <t xml:space="preserve">얼갈이된장국, 쌀밥, 닭데리야끼볶음, 오징어볼&amp;케찹, 숙주겨자무침, 도시락김, 깍두기, Take out menu, 롤유부초밥세트, 옥수수수염차캔, , </t>
         </is>
       </c>
     </row>
@@ -779,7 +799,7 @@
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치, </t>
+          <t xml:space="preserve">된장찌개, 쌀밥, 돼지등뼈김치찜, 야채고로케&amp;케찹, 도토리묵무침, 감자조림, 배추김치, </t>
         </is>
       </c>
     </row>
@@ -791,7 +811,7 @@
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">미역국, 쌀밥, 하이라이스, 함박스테이크, 수제피클, 무조림, 배추김치, </t>
+          <t xml:space="preserve">된장찌개, 비빔밥, , 계란후라이, 도토리묵무침, 멸치볶음, 배추김치, </t>
         </is>
       </c>
     </row>
@@ -803,7 +823,7 @@
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치, </t>
+          <t xml:space="preserve">닭계장, 쌀밥, 언양식불고기&amp;소스, 찐만두&amp;초간장, 깻잎지, 고추양파무침, 깍두기, </t>
         </is>
       </c>
     </row>
@@ -827,7 +847,7 @@
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일, </t>
+          <t xml:space="preserve">계란파국, 후리가케밥, 치즈닭떡볶이, 김말이튀김, 치커리유자무침, 야채샐러드, 포기김치, 계절과일, </t>
         </is>
       </c>
     </row>
@@ -839,7 +859,7 @@
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료, </t>
+          <t xml:space="preserve">고추장찌개, 햄볶음밥, 치즈돈가스&amp;소스, 꽈배기, 크래미양배추겨자무침, 야채샐러드, 포기김치, 냉음료, </t>
         </is>
       </c>
     </row>

--- a/mysite/dataset/renew.xlsx
+++ b/mysite/dataset/renew.xlsx
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>6.86</v>
+        <v>6.06</v>
       </c>
     </row>
     <row r="15">
@@ -634,7 +634,7 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>튼구름</t>
+          <t>구름조금</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>3.1</v>
+        <v>5.64</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>9.57</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="18">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>8.08</v>
+        <v>8.289999999999999</v>
       </c>
     </row>
     <row r="24">
@@ -728,7 +728,7 @@
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>맑음</t>
+          <t>온흐림</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>6.49</v>
+        <v>6.36</v>
       </c>
     </row>
     <row r="26">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>9.42</v>
+        <v>9.779999999999999</v>
       </c>
     </row>
     <row r="27">

--- a/mysite/dataset/renew.xlsx
+++ b/mysite/dataset/renew.xlsx
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>6.06</v>
+        <v>5.06</v>
       </c>
     </row>
     <row r="15">
@@ -634,7 +634,7 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>구름조금</t>
+          <t>온흐림</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>5.64</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="17">
@@ -859,7 +859,7 @@
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">고추장찌개, 햄볶음밥, 치즈돈가스&amp;소스, 꽈배기, 크래미양배추겨자무침, 야채샐러드, 포기김치, 냉음료, </t>
+          <t xml:space="preserve">고추장찌개, 햄볶음밥, 치즈돈가스&amp;소스, 초코도너츠, 크래미양배추겨자무침, 야채샐러드, 포기김치, 냉음료, </t>
         </is>
       </c>
     </row>

--- a/mysite/dataset/renew.xlsx
+++ b/mysite/dataset/renew.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">크림스프, 쌀밥, 치킨까스&amp;머스타드S, 소세지야채볶음, 청경채무침, 모닝빵&amp;초코소스, 배추김치, Take out menu, 햇반컵반철판제육덮밥, 조지아커피캔,무설탕블랙, , </t>
+          <t xml:space="preserve">무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드, </t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">미역국, 쌀밥, 돈불고기, 단팥춘권, 상추무침, 무조림, 배추김치, </t>
+          <t>수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기</t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">유부장국, 참치김치볶음밥, 돈까스, 건파래볶음, 호박볶음, 프렌치토스트, 배추김치, </t>
+          <t xml:space="preserve">김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치, </t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">맑은버섯전골, 쌀밥, 돼지김치찜, 돈가스&amp;소스, 온두부, 야채샐러드, 깍두기, 계절과일, </t>
+          <t xml:space="preserve">갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일, </t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">유부장국, 참치김밥, 떡갈비피망볶음, 치킨가스&amp;허니머스타드, 핫도그&amp;케찹, 야채샐러드, 깍두기, 냉음료, </t>
+          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
@@ -570,7 +570,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>화</t>
+          <t>금</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>5.06</v>
+        <v>6.85</v>
       </c>
     </row>
     <row r="15">
@@ -634,7 +634,7 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>온흐림</t>
+          <t>맑음</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>4.29</v>
+        <v>5.41</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>7.35</v>
+        <v>8.210000000000001</v>
       </c>
     </row>
     <row r="18">
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22">
@@ -706,7 +706,7 @@
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>수</t>
+          <t>토</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>8.289999999999999</v>
+        <v>8.210000000000001</v>
       </c>
     </row>
     <row r="24">
@@ -728,7 +728,7 @@
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>온흐림</t>
+          <t>맑음</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>6.36</v>
+        <v>6.09</v>
       </c>
     </row>
     <row r="26">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>9.779999999999999</v>
+        <v>10.68</v>
       </c>
     </row>
     <row r="27">
@@ -775,7 +775,7 @@
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">미역국, 쌀밥, 하이라이스, 함박스테이크, 수제피클, 무조림, 배추김치, </t>
+          <t>수제설렁탕, 쌀밥, 닭강정, 돈나물무침, 숙주나물, 배추김치, 깍두기</t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">얼갈이된장국, 쌀밥, 닭데리야끼볶음, 오징어볼&amp;케찹, 숙주겨자무침, 도시락김, 깍두기, Take out menu, 롤유부초밥세트, 옥수수수염차캔, , </t>
+          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">된장찌개, 쌀밥, 돼지등뼈김치찜, 야채고로케&amp;케찹, 도토리묵무침, 감자조림, 배추김치, </t>
+          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">된장찌개, 비빔밥, , 계란후라이, 도토리묵무침, 멸치볶음, 배추김치, </t>
+          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">닭계장, 쌀밥, 언양식불고기&amp;소스, 찐만두&amp;초간장, 깻잎지, 고추양파무침, 깍두기, </t>
+          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">계란파국, 후리가케밥, 치즈닭떡볶이, 김말이튀김, 치커리유자무침, 야채샐러드, 포기김치, 계절과일, </t>
+          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">고추장찌개, 햄볶음밥, 치즈돈가스&amp;소스, 초코도너츠, 크래미양배추겨자무침, 야채샐러드, 포기김치, 냉음료, </t>
+          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
         </is>
       </c>
     </row>

--- a/mysite/dataset/renew.xlsx
+++ b/mysite/dataset/renew.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드, </t>
+          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기</t>
+          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치, </t>
+          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일, </t>
+          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -570,7 +570,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>금</t>
+          <t>일</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>6.85</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="15">
@@ -634,7 +634,7 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>맑음</t>
+          <t>튼구름</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>5.41</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>8.210000000000001</v>
+        <v>12.17</v>
       </c>
     </row>
     <row r="18">
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
@@ -706,7 +706,7 @@
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>토</t>
+          <t>월</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>8.210000000000001</v>
+        <v>11.35</v>
       </c>
     </row>
     <row r="24">
@@ -728,7 +728,7 @@
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>맑음</t>
+          <t>온흐림</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>6.09</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>10.68</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="27">
@@ -775,7 +775,7 @@
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>수제설렁탕, 쌀밥, 닭강정, 돈나물무침, 숙주나물, 배추김치, 깍두기</t>
+          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, , </t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기, </t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">어묵국, 후리카게밥, 매콤떡볶이, 모듬튀김, 멸치볶음, 치커리무침, 배추김치, </t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치, </t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일, </t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료, </t>
         </is>
       </c>
     </row>

--- a/mysite/dataset/renew.xlsx
+++ b/mysite/dataset/renew.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">무채국, 쌀밥, 김치닭볶음탕, 청양마요바베큐바, 온두부&amp;양념간장, 두유, 깍두기, Take out menu, 듬뿍참치김밥, 파워에이드, </t>
+          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>수제설렁탕, 쌀밥, 동그랑땡전&amp;케찹, 연근조림, 숙주나물, 배추김치, 깍두기</t>
+          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">김치두부국, 쌀밥, 오징어덮밥, 탕수만두, 두부조림, 푸실리샐러드, 배추김치, </t>
+          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">갈비탕&amp;당면, 흑미밥, 오삼불고기, 연어가스&amp;타르소스, 무생채, 야채샐러드, 포기김치, 계절과일, </t>
+          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -570,7 +570,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>금</t>
+          <t>일</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>6.85</v>
+        <v>9.59</v>
       </c>
     </row>
     <row r="15">
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>5.41</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>8.210000000000001</v>
+        <v>12.03</v>
       </c>
     </row>
     <row r="18">
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
@@ -706,7 +706,7 @@
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>토</t>
+          <t>월</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>8.210000000000001</v>
+        <v>11.35</v>
       </c>
     </row>
     <row r="24">
@@ -728,7 +728,7 @@
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>맑음</t>
+          <t>온흐림</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>6.09</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>10.68</v>
+        <v>13.61</v>
       </c>
     </row>
     <row r="27">
@@ -775,7 +775,7 @@
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>수제설렁탕, 쌀밥, 닭강정, 돈나물무침, 숙주나물, 배추김치, 깍두기</t>
+          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, , </t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기, </t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">어묵국, 후리카게밥, 매콤떡볶이, 모듬튀김, 멸치볶음, 치커리무침, 배추김치, </t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치, </t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일, </t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료, </t>
         </is>
       </c>
     </row>

--- a/mysite/dataset/renew.xlsx
+++ b/mysite/dataset/renew.xlsx
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>9.27</v>
+        <v>8.390000000000001</v>
       </c>
     </row>
     <row r="15">
@@ -634,7 +634,7 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>튼구름</t>
+          <t>맑음</t>
         </is>
       </c>
     </row>
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>12.17</v>
+        <v>10.46</v>
       </c>
     </row>
     <row r="18">

--- a/mysite/dataset/renew.xlsx
+++ b/mysite/dataset/renew.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, , </t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기, </t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치, </t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일, </t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료, </t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -570,7 +570,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>일</t>
+          <t>월</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>9.27</v>
+        <v>11.94</v>
       </c>
     </row>
     <row r="15">
@@ -634,7 +634,7 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>튼구름</t>
+          <t>실 비</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>7.19</v>
+        <v>10.94</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>12.17</v>
+        <v>13.57</v>
       </c>
     </row>
     <row r="18">
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -706,7 +706,7 @@
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>월</t>
+          <t>화</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>11.35</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="24">
@@ -728,7 +728,7 @@
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>온흐림</t>
+          <t>실 비</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>8</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="26">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>13.61</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -775,7 +775,7 @@
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">어묵국, 후리카게밥, 매콤떡볶이, 모듬튀김, 멸치볶음, 치커리무침, 배추김치, </t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, , </t>
+          <t xml:space="preserve">계란국, 쌀밥, 짜장소스, 탕수육&amp;소스, 단무지, 쥬시쿨, 배추김치, Take out menu, 더커진전주비빔삼각김밥, 흰우유, 롤조각케이크, 녹차, </t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기, </t>
+          <t xml:space="preserve">사골국, 쌀밥, 토마토스파게티, 돈까스&amp;소스, 오이송송이, 그린샐러드, 배추김치, </t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">어묵국, 후리카게밥, 매콤떡볶이, 모듬튀김, 멸치볶음, 치커리무침, 배추김치, </t>
+          <t xml:space="preserve">사골국, 쌀밥, 카레라이스, 대왕소세지, 미역줄기볶음, 그린샐러드, 배추김치, </t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치, </t>
+          <t xml:space="preserve">돈육김치찌개, 쌀밥, 치킨까스&amp;머스타드s, 미트볼조림, 참나물무침, 건파래볶음, 깍두기, </t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일, </t>
+          <t xml:space="preserve">나가사끼짬뽕, 쌀밥, 짜장제육볶음, 칠리탕수육, 치커리유자무침, 야채샐러드, 포기김치, 계절과일, </t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료, </t>
+          <t xml:space="preserve">부대찌개, 김치볶음밥, 계란후라이, 치즈돈가스&amp;소스, 브로콜리숙회&amp;초장, 야채샐러드, 깍두기, 냉음료, </t>
         </is>
       </c>
     </row>

--- a/mysite/dataset/renew.xlsx
+++ b/mysite/dataset/renew.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, , </t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기, </t>
         </is>
       </c>
     </row>
@@ -492,7 +492,7 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치, </t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일, </t>
         </is>
       </c>
     </row>
@@ -528,7 +528,7 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료, </t>
         </is>
       </c>
     </row>
@@ -559,7 +559,7 @@
         </is>
       </c>
       <c r="B10" s="0" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
@@ -570,7 +570,7 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>일</t>
+          <t>월</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>8.390000000000001</v>
+        <v>11.68</v>
       </c>
     </row>
     <row r="15">
@@ -634,7 +634,7 @@
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>맑음</t>
+          <t>실 비</t>
         </is>
       </c>
     </row>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="B16" s="0" t="n">
-        <v>7.19</v>
+        <v>10.94</v>
       </c>
     </row>
     <row r="17">
@@ -655,7 +655,7 @@
         </is>
       </c>
       <c r="B17" s="0" t="n">
-        <v>10.46</v>
+        <v>12.89</v>
       </c>
     </row>
     <row r="18">
@@ -695,7 +695,7 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
@@ -706,7 +706,7 @@
       </c>
       <c r="B22" s="0" t="inlineStr">
         <is>
-          <t>월</t>
+          <t>화</t>
         </is>
       </c>
     </row>
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B23" s="0" t="n">
-        <v>11.35</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="24">
@@ -728,7 +728,7 @@
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>온흐림</t>
+          <t>실 비</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>8</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="26">
@@ -749,7 +749,7 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>13.61</v>
+        <v>9.949999999999999</v>
       </c>
     </row>
     <row r="27">
@@ -775,7 +775,7 @@
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">메뉴를 찾을 수 없습니다. </t>
+          <t xml:space="preserve">어묵국, 후리카게밥, 매콤떡볶이, 모듬튀김, 멸치볶음, 치커리무침, 배추김치, </t>
         </is>
       </c>
     </row>
@@ -787,7 +787,7 @@
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">황태국, 쌀밥, 떡갈비조림, 베이컨양배추볶음, 무짠지무침, 도시락김, 배추김치, Take out menu, 김치치즈주먹밥, 멸치맛쌀국수, , </t>
+          <t xml:space="preserve">계란국, 쌀밥, 짜장소스, 탕수육&amp;소스, 단무지, 쥬시쿨, 배추김치, Take out menu, 더커진전주비빔삼각김밥, 흰우유, 롤조각케이크, 녹차, </t>
         </is>
       </c>
     </row>
@@ -799,7 +799,7 @@
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">어묵국, 쌀밥, 김치돈육찜, 오징어링&amp;초간장, 실곤약무침, 치커리무침, 깍두기, </t>
+          <t xml:space="preserve">사골국, 쌀밥, 토마토스파게티, 돈까스&amp;소스, 오이송송이, 그린샐러드, 배추김치, </t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">어묵국, 후리카게밥, 매콤떡볶이, 모듬튀김, 멸치볶음, 치커리무침, 배추김치, </t>
+          <t xml:space="preserve">사골국, 쌀밥, 카레라이스, 대왕소세지, 미역줄기볶음, 그린샐러드, 배추김치, </t>
         </is>
       </c>
     </row>
@@ -823,7 +823,7 @@
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">근대된장국, 쌀밥, 불닭볶음면, 연어치즈까스&amp;타르s, 햄맛살볶음, 얼갈이무침, 배추김치, </t>
+          <t xml:space="preserve">돈육김치찌개, 쌀밥, 치킨까스&amp;머스타드s, 미트볼조림, 참나물무침, 건파래볶음, 깍두기, </t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">계란국, 쌀밥, 갈릭돈육하이라이스, 소시지&amp;케찹, 마늘쫑무침, 야채샐러드, 깍두기, 계절과일, </t>
+          <t xml:space="preserve">나가사끼짬뽕, 쌀밥, 짜장제육볶음, 칠리탕수육, 치커리유자무침, 야채샐러드, 포기김치, 계절과일, </t>
         </is>
       </c>
     </row>
@@ -859,7 +859,7 @@
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">근대된장국, 쌀밥, 닭볶음탕, 콘소메연근튀김, 오징어젓무말랭이, 야채샐러드, 포기김치, 냉음료, </t>
+          <t xml:space="preserve">부대찌개, 김치볶음밥, 계란후라이, 치즈돈가스&amp;소스, 브로콜리숙회&amp;초장, 야채샐러드, 깍두기, 냉음료, </t>
         </is>
       </c>
     </row>
